--- a/public/files/import/bills.xlsx
+++ b/public/files/import/bills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bills" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>bill_number</t>
   </si>
@@ -82,7 +82,7 @@
     <t>footer</t>
   </si>
   <si>
-    <t>BIL-12345</t>
+    <t>BILL-00001</t>
   </si>
   <si>
     <t>paid</t>
@@ -109,6 +109,9 @@
     <t>item_name</t>
   </si>
   <si>
+    <t>item_description</t>
+  </si>
+  <si>
     <t>item_type</t>
   </si>
   <si>
@@ -124,10 +127,10 @@
     <t>tax</t>
   </si>
   <si>
-    <t>BILL-00001</t>
-  </si>
-  <si>
     <t>Test Item</t>
+  </si>
+  <si>
+    <t>test bill item</t>
   </si>
   <si>
     <t>product</t>
@@ -201,11 +204,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -219,6 +222,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -227,60 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +267,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +335,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,46 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,19 +395,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,43 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,109 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,78 +580,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,6 +600,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -677,147 +617,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1274,24 +1277,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.9074074074074" customWidth="1"/>
     <col min="2" max="2" width="11.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="10.5740740740741" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="5.11111111111111" customWidth="1"/>
     <col min="6" max="6" width="5.77777777777778" customWidth="1"/>
     <col min="7" max="7" width="5.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1313,24 +1316,30 @@
       <c r="G1" t="s">
         <v>33</v>
       </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
     </row>
@@ -1347,7 +1356,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1366,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1385,7 +1394,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1403,10 +1412,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1414,10 +1423,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1428,7 +1437,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1453,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1461,16 +1470,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1478,10 +1487,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1495,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1520,7 +1529,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1542,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1557,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -1566,16 +1575,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1583,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>43831</v>
@@ -1598,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1607,7 +1616,7 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
